--- a/rpt/carte_electronique_didactique_PittetL02-rpt-journal.xlsx
+++ b/rpt/carte_electronique_didactique_PittetL02-rpt-journal.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://eduetatfr-my.sharepoint.com/personal/loic_pittet_studentfr_ch/Documents/TPI_PITTETL02/tpi_carte_electronique_didactique_pittetl02/rpt/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="582" documentId="11_416AEE08F1E9306E2D9B4F0BC9E4841233F83705" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0DD21C78-FA72-4D54-B12F-949EB9E6AD05}"/>
+  <xr:revisionPtr revIDLastSave="601" documentId="11_416AEE08F1E9306E2D9B4F0BC9E4841233F83705" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{51A3241D-3034-488B-A192-077667AFB1D5}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -66,7 +66,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="275" uniqueCount="87">
   <si>
     <t>Date</t>
   </si>
@@ -320,6 +320,24 @@
   </si>
   <si>
     <t>Problème rencontré</t>
+  </si>
+  <si>
+    <t>Test d'une LDR ainsi que d'un photo-transistor pour pouvoir mieux se rendre compte du travail à effectuer.</t>
+  </si>
+  <si>
+    <t>Après discussion avec Mr.Berset, il a été décidé d'utiliser un photo-transistor plutôt qu'une LDR parce que celle-ci est trop polluante parce qu'elle nécessite du Cadmium à sa fabrication.                                                 Après avoir réalisé les tests, il a été remarqué qu'il fallait augmenter la résistence qui office d'hystérèse (reliant la sortie du comparateur et la pin "+") nouvelle valeure de résistance choisis à 8.2MOhms après plusieurs tests avec plusieurs résistances.</t>
+  </si>
+  <si>
+    <t>Essais d'échanger l'état de la LED pour que ce soit plus réaliste par rapport à la réalité.</t>
+  </si>
+  <si>
+    <t>Il y'a des problèmes d'impédance et il n'y a plus assez d'impédance en entrée pour que le comparateur fonctionne.       Ensuite, j'ai remarqué que cette erreur étais aussi présente avec la led de l'autre sens. J'ai réalisé que c'était à cause du volt-mètre et de sa résistance d'entrée. Après plusieurs tests, rajouter une résistance à la masse et en parrallele au volt-mètre pour réaugmenter l'impédance d'entrée.</t>
+  </si>
+  <si>
+    <t>Composants</t>
+  </si>
+  <si>
+    <t>Recherches des composants sur Digikey</t>
   </si>
 </sst>
 </file>
@@ -2062,10 +2080,6 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Thème Office">
   <a:themeElements>
@@ -2332,8 +2346,8 @@
   <dimension ref="A1:G33"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L7" sqref="L7"/>
+      <pane ySplit="4" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="13.5" x14ac:dyDescent="0.25"/>
@@ -2526,42 +2540,72 @@
       </c>
       <c r="G11" s="14"/>
     </row>
-    <row r="12" spans="1:7" s="10" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:7" s="10" customFormat="1" ht="157.5" x14ac:dyDescent="0.2">
       <c r="A12" s="32" t="s">
         <v>5</v>
       </c>
-      <c r="B12" s="4"/>
-      <c r="C12" s="4"/>
-      <c r="D12" s="4"/>
-      <c r="E12" s="4"/>
-      <c r="F12" s="6"/>
+      <c r="B12" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="F12" s="6">
+        <v>3</v>
+      </c>
       <c r="G12" s="14"/>
     </row>
-    <row r="13" spans="1:7" s="10" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:7" s="10" customFormat="1" ht="146.25" x14ac:dyDescent="0.2">
       <c r="A13" s="32"/>
       <c r="B13" s="4"/>
-      <c r="C13" s="4"/>
-      <c r="D13" s="4"/>
-      <c r="E13" s="4"/>
-      <c r="F13" s="6"/>
+      <c r="C13" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="F13" s="6">
+        <v>3</v>
+      </c>
       <c r="G13" s="14"/>
     </row>
     <row r="14" spans="1:7" s="10" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A14" s="32"/>
       <c r="B14" s="4"/>
-      <c r="C14" s="4"/>
-      <c r="D14" s="4"/>
+      <c r="C14" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>76</v>
+      </c>
       <c r="E14" s="4"/>
-      <c r="F14" s="6"/>
+      <c r="F14" s="6">
+        <v>0.5</v>
+      </c>
       <c r="G14" s="14"/>
     </row>
-    <row r="15" spans="1:7" s="10" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:7" s="10" customFormat="1" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A15" s="32"/>
       <c r="B15" s="4"/>
-      <c r="C15" s="4"/>
-      <c r="D15" s="4"/>
+      <c r="C15" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>86</v>
+      </c>
       <c r="E15" s="4"/>
-      <c r="F15" s="6"/>
+      <c r="F15" s="6">
+        <v>0.5</v>
+      </c>
       <c r="G15" s="14"/>
     </row>
     <row r="16" spans="1:7" s="10" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
@@ -2576,7 +2620,7 @@
       </c>
       <c r="F16" s="18">
         <f>SUM(F12:F15)</f>
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="G16" s="14"/>
     </row>
@@ -2755,7 +2799,7 @@
       </c>
       <c r="G32" s="22">
         <f>F11+F16+F21+F26+F31</f>
-        <v>7</v>
+        <v>14</v>
       </c>
     </row>
     <row r="33" spans="1:7" s="10" customFormat="1" ht="82.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -3273,11 +3317,6 @@
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="A5:A10"/>
-    <mergeCell ref="A12:A15"/>
-    <mergeCell ref="A17:A20"/>
-    <mergeCell ref="A22:A25"/>
     <mergeCell ref="A33:G41"/>
     <mergeCell ref="A27:A30"/>
     <mergeCell ref="A32:D32"/>
@@ -3286,6 +3325,11 @@
     <mergeCell ref="B3:B4"/>
     <mergeCell ref="A3:A4"/>
     <mergeCell ref="C3:C4"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A5:A10"/>
+    <mergeCell ref="A12:A15"/>
+    <mergeCell ref="A17:A20"/>
+    <mergeCell ref="A22:A25"/>
   </mergeCells>
   <conditionalFormatting sqref="F5:F31">
     <cfRule type="containsText" dxfId="27" priority="1" operator="containsText" text="Terminé">
@@ -3762,11 +3806,6 @@
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="C5:C6"/>
-    <mergeCell ref="A24:A27"/>
     <mergeCell ref="A35:G40"/>
     <mergeCell ref="A29:A32"/>
     <mergeCell ref="A34:D34"/>
@@ -3775,6 +3814,11 @@
     <mergeCell ref="A7:A12"/>
     <mergeCell ref="A14:A17"/>
     <mergeCell ref="A19:A22"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="A24:A27"/>
   </mergeCells>
   <conditionalFormatting sqref="F7:F33">
     <cfRule type="containsText" dxfId="23" priority="1" operator="containsText" text="Terminé">
@@ -4233,6 +4277,12 @@
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="A33:G38"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="D3:D4"/>
+    <mergeCell ref="E3:E4"/>
+    <mergeCell ref="A27:A30"/>
+    <mergeCell ref="A32:D32"/>
     <mergeCell ref="A2:B2"/>
     <mergeCell ref="A5:A10"/>
     <mergeCell ref="A12:A15"/>
@@ -4240,12 +4290,6 @@
     <mergeCell ref="A22:A25"/>
     <mergeCell ref="A3:A4"/>
     <mergeCell ref="B3:B4"/>
-    <mergeCell ref="A33:G38"/>
-    <mergeCell ref="C3:C4"/>
-    <mergeCell ref="D3:D4"/>
-    <mergeCell ref="E3:E4"/>
-    <mergeCell ref="A27:A30"/>
-    <mergeCell ref="A32:D32"/>
   </mergeCells>
   <conditionalFormatting sqref="F5:F31">
     <cfRule type="containsText" dxfId="19" priority="1" operator="containsText" text="Terminé">
@@ -4713,6 +4757,12 @@
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="A33:G39"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="D3:D4"/>
+    <mergeCell ref="E3:E4"/>
+    <mergeCell ref="A27:A30"/>
+    <mergeCell ref="A32:D32"/>
     <mergeCell ref="A2:B2"/>
     <mergeCell ref="A5:A10"/>
     <mergeCell ref="A12:A15"/>
@@ -4720,12 +4770,6 @@
     <mergeCell ref="A22:A25"/>
     <mergeCell ref="A3:A4"/>
     <mergeCell ref="B3:B4"/>
-    <mergeCell ref="A33:G39"/>
-    <mergeCell ref="C3:C4"/>
-    <mergeCell ref="D3:D4"/>
-    <mergeCell ref="E3:E4"/>
-    <mergeCell ref="A27:A30"/>
-    <mergeCell ref="A32:D32"/>
   </mergeCells>
   <conditionalFormatting sqref="F5:F31">
     <cfRule type="containsText" dxfId="15" priority="1" operator="containsText" text="Terminé">
@@ -5673,12 +5717,6 @@
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="E3:E4"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="C3:C4"/>
-    <mergeCell ref="D3:D4"/>
     <mergeCell ref="A33:G39"/>
     <mergeCell ref="A5:A10"/>
     <mergeCell ref="A12:A15"/>
@@ -5686,6 +5724,12 @@
     <mergeCell ref="A22:A25"/>
     <mergeCell ref="A27:A30"/>
     <mergeCell ref="A32:D32"/>
+    <mergeCell ref="E3:E4"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="D3:D4"/>
   </mergeCells>
   <conditionalFormatting sqref="F5:F31">
     <cfRule type="containsText" dxfId="7" priority="1" operator="containsText" text="Terminé">
@@ -6149,12 +6193,6 @@
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="E3:E4"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="C3:C4"/>
-    <mergeCell ref="D3:D4"/>
     <mergeCell ref="A33:G39"/>
     <mergeCell ref="A5:A10"/>
     <mergeCell ref="A12:A15"/>
@@ -6162,6 +6200,12 @@
     <mergeCell ref="A22:A25"/>
     <mergeCell ref="A27:A30"/>
     <mergeCell ref="A32:D32"/>
+    <mergeCell ref="E3:E4"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="D3:D4"/>
   </mergeCells>
   <conditionalFormatting sqref="F5:F31">
     <cfRule type="containsText" dxfId="3" priority="1" operator="containsText" text="Terminé">

--- a/rpt/carte_electronique_didactique_PittetL02-rpt-journal.xlsx
+++ b/rpt/carte_electronique_didactique_PittetL02-rpt-journal.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28623"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://eduetatfr-my.sharepoint.com/personal/loic_pittet_studentfr_ch/Documents/TPI_PITTETL02/tpi_carte_electronique_didactique_pittetl02/rpt/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="601" documentId="11_416AEE08F1E9306E2D9B4F0BC9E4841233F83705" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{51A3241D-3034-488B-A192-077667AFB1D5}"/>
+  <xr:revisionPtr revIDLastSave="638" documentId="11_416AEE08F1E9306E2D9B4F0BC9E4841233F83705" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6BDEA01D-F0A4-41D1-91E5-584198B4BEEF}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -66,7 +66,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="275" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="287" uniqueCount="94">
   <si>
     <t>Date</t>
   </si>
@@ -283,9 +283,6 @@
     <t>Réalisation du répertoire GitHub ainsi que l'arborescence du projet sur mon emplacement de travail.</t>
   </si>
   <si>
-    <t>/</t>
-  </si>
-  <si>
     <t>Doc</t>
   </si>
   <si>
@@ -338,6 +335,30 @@
   </si>
   <si>
     <t>Recherches des composants sur Digikey</t>
+  </si>
+  <si>
+    <t>Recherche du PIC à utilisé</t>
+  </si>
+  <si>
+    <t>Recherche d'une nouvelle façon de créer du bruit à l'aide d'un PIC. -&gt; PWM</t>
+  </si>
+  <si>
+    <t>Discussion</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Discussion avec Mr.Berset pour éclaircir les zones d'ombres sur le projet.          </t>
+  </si>
+  <si>
+    <t>Remplissage du rapport de stage</t>
+  </si>
+  <si>
+    <t>Pas prendre un pic avec trop d'I/O si pas l'utilité.                                        Mais il faut avoir un DAC ou un ADC encore à définir pour l'utiliser au cas où.</t>
+  </si>
+  <si>
+    <t>Réussir à tout retenir d'une discussion de 3 heures est compliqué à recracher même 15 minutes après. J'aurais du prendre plus de note au fil et à mesure de la conversation.</t>
+  </si>
+  <si>
+    <t>La partie comparateur n'a pas la même impédance d'entrée que la sortie du capteur donc il y'a des problèmes lorsque la contre réaction (hystérèse)est branchée. Il faut mettre un conditioneur entre le capteur et le comparateur pour éviter ce problème. Suiveur?                                           Nous devons changer de capteur photo-transistor parce-que celui "proposer" n'est plus disponible. Nous avons donc fait des recherches quand à la fiabilité du nouveau capteur dans notre environnement de travail.                            Ellaboration d'un schéma bloc pour être plus clair dans nos idées. 2 propositions y sont ressortis. Une plus simple à réalisé et une autre plus compliqué. Nous allons partir sur la plus simple des deux.                             Mettre un deuxième capteur photo-transistor pour avoir une lumière de référence pour ainsi pouvoir soustraire la valeur mesuré par le capteur "normal" par le capteur de référence.                         Réflexion de comment être plus précis pour voir l'hystérèse. Au lieu d'approcher et d'éloigner la main, on met un cache lumière sur les côtés pour par être perturbé par la lumière "parasite" et on viendra faire coulisser un petit cache horizontalement pour être précis et voir correctement l'effet de l'hystérèse.                                   Réflexion sur le moyen de générer du bruit. La méthode "Bruit numérique par pseudo-aléatoire (LFSR)" que j'avais trouvé fera l'affaire. C'est l'une des méthodes la plus simple à réalisé. La méthode par PWM a été jugé trop compliqué à designé.                                                         Réflexion si l'on préfère faire un PCB plutôt orienté qualité ou prix. Pour cette application, on préférera un PCB de qualité. (Bien sûr que l'on va faire attention à prendre les composants les moins chers possible) Par exemple, j'ai posé la question si Mr.Berset préférait un jumper pour le prix, ou un switch pour la qualité.</t>
   </si>
 </sst>
 </file>
@@ -2345,18 +2366,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G33"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H13" sqref="H13"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="4" topLeftCell="A13" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I19" sqref="I19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="13.5" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="12" style="1" customWidth="1"/>
     <col min="2" max="2" width="26.28515625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="9.140625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="10.7109375" style="1" customWidth="1"/>
     <col min="4" max="4" width="35" style="1" customWidth="1"/>
-    <col min="5" max="5" width="35.5703125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="43.7109375" style="1" customWidth="1"/>
     <col min="6" max="6" width="7" style="1" customWidth="1"/>
     <col min="7" max="7" width="8.28515625" style="1" customWidth="1"/>
     <col min="8" max="16384" width="11.42578125" style="1"/>
@@ -2402,7 +2423,7 @@
         <v>17</v>
       </c>
       <c r="E3" s="30" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F3" s="8" t="s">
         <v>2</v>
@@ -2432,14 +2453,12 @@
         <v>61</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D5" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="E5" s="5" t="s">
-        <v>68</v>
-      </c>
+      <c r="E5" s="5"/>
       <c r="F5" s="13">
         <v>1</v>
       </c>
@@ -2449,10 +2468,10 @@
       <c r="A6" s="32"/>
       <c r="B6" s="5"/>
       <c r="C6" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="D6" s="5" t="s">
         <v>69</v>
-      </c>
-      <c r="D6" s="5" t="s">
-        <v>70</v>
       </c>
       <c r="E6" s="5"/>
       <c r="F6" s="13">
@@ -2464,10 +2483,10 @@
       <c r="A7" s="32"/>
       <c r="B7" s="5"/>
       <c r="C7" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="D7" s="5" t="s">
         <v>71</v>
-      </c>
-      <c r="D7" s="5" t="s">
-        <v>72</v>
       </c>
       <c r="E7" s="5"/>
       <c r="F7" s="13">
@@ -2479,13 +2498,13 @@
       <c r="A8" s="32"/>
       <c r="B8" s="4"/>
       <c r="C8" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="D8" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="D8" s="4" t="s">
+      <c r="E8" s="4" t="s">
         <v>74</v>
-      </c>
-      <c r="E8" s="4" t="s">
-        <v>75</v>
       </c>
       <c r="F8" s="6">
         <v>2</v>
@@ -2496,13 +2515,13 @@
       <c r="A9" s="32"/>
       <c r="B9" s="4"/>
       <c r="C9" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="D9" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="D9" s="4" t="s">
+      <c r="E9" s="4" t="s">
         <v>78</v>
-      </c>
-      <c r="E9" s="4" t="s">
-        <v>79</v>
       </c>
       <c r="F9" s="6">
         <v>1</v>
@@ -2513,10 +2532,10 @@
       <c r="A10" s="32"/>
       <c r="B10" s="4"/>
       <c r="C10" s="4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E10" s="4"/>
       <c r="F10" s="6">
@@ -2548,13 +2567,13 @@
         <v>61</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D12" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="E12" s="4" t="s">
         <v>81</v>
-      </c>
-      <c r="E12" s="4" t="s">
-        <v>82</v>
       </c>
       <c r="F12" s="6">
         <v>3</v>
@@ -2565,13 +2584,13 @@
       <c r="A13" s="32"/>
       <c r="B13" s="4"/>
       <c r="C13" s="4" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D13" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="E13" s="4" t="s">
         <v>83</v>
-      </c>
-      <c r="E13" s="4" t="s">
-        <v>84</v>
       </c>
       <c r="F13" s="6">
         <v>3</v>
@@ -2582,10 +2601,10 @@
       <c r="A14" s="32"/>
       <c r="B14" s="4"/>
       <c r="C14" s="4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E14" s="4"/>
       <c r="F14" s="6">
@@ -2597,10 +2616,10 @@
       <c r="A15" s="32"/>
       <c r="B15" s="4"/>
       <c r="C15" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="D15" s="4" t="s">
         <v>85</v>
-      </c>
-      <c r="D15" s="4" t="s">
-        <v>86</v>
       </c>
       <c r="E15" s="4"/>
       <c r="F15" s="6">
@@ -2624,42 +2643,74 @@
       </c>
       <c r="G16" s="14"/>
     </row>
-    <row r="17" spans="1:7" s="10" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:7" s="10" customFormat="1" ht="56.25" x14ac:dyDescent="0.2">
       <c r="A17" s="32" t="s">
         <v>7</v>
       </c>
-      <c r="B17" s="4"/>
-      <c r="C17" s="4"/>
-      <c r="D17" s="4"/>
-      <c r="E17" s="4"/>
-      <c r="F17" s="6"/>
+      <c r="B17" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="E17" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="F17" s="6">
+        <v>0.5</v>
+      </c>
       <c r="G17" s="14"/>
     </row>
-    <row r="18" spans="1:7" s="10" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:7" s="10" customFormat="1" ht="33.75" x14ac:dyDescent="0.2">
       <c r="A18" s="32"/>
       <c r="B18" s="4"/>
-      <c r="C18" s="4"/>
-      <c r="D18" s="4"/>
+      <c r="C18" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>87</v>
+      </c>
       <c r="E18" s="4"/>
-      <c r="F18" s="6"/>
+      <c r="F18" s="6">
+        <v>3</v>
+      </c>
       <c r="G18" s="14"/>
     </row>
-    <row r="19" spans="1:7" s="10" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:7" s="10" customFormat="1" ht="409.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="32"/>
       <c r="B19" s="4"/>
-      <c r="C19" s="4"/>
-      <c r="D19" s="4"/>
-      <c r="E19" s="4"/>
-      <c r="F19" s="6"/>
+      <c r="C19" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="D19" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="E19" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="F19" s="6">
+        <v>3</v>
+      </c>
       <c r="G19" s="14"/>
     </row>
-    <row r="20" spans="1:7" s="10" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:7" s="10" customFormat="1" ht="56.25" x14ac:dyDescent="0.2">
       <c r="A20" s="32"/>
       <c r="B20" s="4"/>
-      <c r="C20" s="4"/>
-      <c r="D20" s="4"/>
-      <c r="E20" s="4"/>
-      <c r="F20" s="6"/>
+      <c r="C20" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="D20" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="E20" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="F20" s="6">
+        <v>0.5</v>
+      </c>
       <c r="G20" s="14"/>
     </row>
     <row r="21" spans="1:7" s="10" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
@@ -2674,15 +2725,17 @@
       </c>
       <c r="F21" s="18">
         <f>SUM(F17:F20)</f>
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="G21" s="14"/>
     </row>
-    <row r="22" spans="1:7" s="10" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:7" s="10" customFormat="1" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A22" s="32" t="s">
         <v>8</v>
       </c>
-      <c r="B22" s="4"/>
+      <c r="B22" s="5" t="s">
+        <v>61</v>
+      </c>
       <c r="C22" s="4"/>
       <c r="D22" s="4"/>
       <c r="E22" s="4"/>
@@ -2799,7 +2852,7 @@
       </c>
       <c r="G32" s="22">
         <f>F11+F16+F21+F26+F31</f>
-        <v>14</v>
+        <v>21</v>
       </c>
     </row>
     <row r="33" spans="1:7" s="10" customFormat="1" ht="82.5" customHeight="1" x14ac:dyDescent="0.2">

--- a/rpt/carte_electronique_didactique_PittetL02-rpt-journal.xlsx
+++ b/rpt/carte_electronique_didactique_PittetL02-rpt-journal.xlsx
@@ -8,20 +8,21 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://eduetatfr-my.sharepoint.com/personal/loic_pittet_studentfr_ch/Documents/TPI_PITTETL02/tpi_carte_electronique_didactique_pittetl02/rpt/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="638" documentId="11_416AEE08F1E9306E2D9B4F0BC9E4841233F83705" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6BDEA01D-F0A4-41D1-91E5-584198B4BEEF}"/>
+  <xr:revisionPtr revIDLastSave="694" documentId="11_416AEE08F1E9306E2D9B4F0BC9E4841233F83705" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{AAFFA9E5-3E4D-45D8-8AE6-9CE32BFA20D7}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="s1" sheetId="8" r:id="rId1"/>
-    <sheet name="s2" sheetId="1" r:id="rId2"/>
-    <sheet name="s3" sheetId="9" r:id="rId3"/>
-    <sheet name="s4" sheetId="10" r:id="rId4"/>
-    <sheet name="s5" sheetId="11" r:id="rId5"/>
-    <sheet name="s6" sheetId="12" r:id="rId6"/>
-    <sheet name="s7" sheetId="13" r:id="rId7"/>
-    <sheet name="s8" sheetId="14" r:id="rId8"/>
-    <sheet name="total" sheetId="2" r:id="rId9"/>
+    <sheet name="Feuil1" sheetId="15" r:id="rId1"/>
+    <sheet name="s1" sheetId="8" r:id="rId2"/>
+    <sheet name="s2" sheetId="1" r:id="rId3"/>
+    <sheet name="s3" sheetId="9" r:id="rId4"/>
+    <sheet name="s4" sheetId="10" r:id="rId5"/>
+    <sheet name="s5" sheetId="11" r:id="rId6"/>
+    <sheet name="s6" sheetId="12" r:id="rId7"/>
+    <sheet name="s7" sheetId="13" r:id="rId8"/>
+    <sheet name="s8" sheetId="14" r:id="rId9"/>
+    <sheet name="total" sheetId="2" r:id="rId10"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -66,7 +67,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="287" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="301" uniqueCount="103">
   <si>
     <t>Date</t>
   </si>
@@ -304,9 +305,6 @@
     <t xml:space="preserve">Il faut trouver un moyen de générer du bruit et d'abaisser la valeur à environ 200mV. </t>
   </si>
   <si>
-    <t>Ecriture du rapport de journal</t>
-  </si>
-  <si>
     <t>Schematic</t>
   </si>
   <si>
@@ -349,9 +347,6 @@
     <t xml:space="preserve">Discussion avec Mr.Berset pour éclaircir les zones d'ombres sur le projet.          </t>
   </si>
   <si>
-    <t>Remplissage du rapport de stage</t>
-  </si>
-  <si>
     <t>Pas prendre un pic avec trop d'I/O si pas l'utilité.                                        Mais il faut avoir un DAC ou un ADC encore à définir pour l'utiliser au cas où.</t>
   </si>
   <si>
@@ -359,6 +354,39 @@
   </si>
   <si>
     <t>La partie comparateur n'a pas la même impédance d'entrée que la sortie du capteur donc il y'a des problèmes lorsque la contre réaction (hystérèse)est branchée. Il faut mettre un conditioneur entre le capteur et le comparateur pour éviter ce problème. Suiveur?                                           Nous devons changer de capteur photo-transistor parce-que celui "proposer" n'est plus disponible. Nous avons donc fait des recherches quand à la fiabilité du nouveau capteur dans notre environnement de travail.                            Ellaboration d'un schéma bloc pour être plus clair dans nos idées. 2 propositions y sont ressortis. Une plus simple à réalisé et une autre plus compliqué. Nous allons partir sur la plus simple des deux.                             Mettre un deuxième capteur photo-transistor pour avoir une lumière de référence pour ainsi pouvoir soustraire la valeur mesuré par le capteur "normal" par le capteur de référence.                         Réflexion de comment être plus précis pour voir l'hystérèse. Au lieu d'approcher et d'éloigner la main, on met un cache lumière sur les côtés pour par être perturbé par la lumière "parasite" et on viendra faire coulisser un petit cache horizontalement pour être précis et voir correctement l'effet de l'hystérèse.                                   Réflexion sur le moyen de générer du bruit. La méthode "Bruit numérique par pseudo-aléatoire (LFSR)" que j'avais trouvé fera l'affaire. C'est l'une des méthodes la plus simple à réalisé. La méthode par PWM a été jugé trop compliqué à designé.                                                         Réflexion si l'on préfère faire un PCB plutôt orienté qualité ou prix. Pour cette application, on préférera un PCB de qualité. (Bien sûr que l'on va faire attention à prendre les composants les moins chers possible) Par exemple, j'ai posé la question si Mr.Berset préférait un jumper pour le prix, ou un switch pour la qualité.</t>
+  </si>
+  <si>
+    <t>Réalisation du schéma bloc au propore après la discussion avec Mr.Berset.</t>
+  </si>
+  <si>
+    <t>Développement du schéma selon le schéma bloc réalisé auperavant</t>
+  </si>
+  <si>
+    <t>Le choix des résistances n'est pas très évident. Il faut que je me replonge dans les exercices de dimmentionnements.</t>
+  </si>
+  <si>
+    <t>Commande du photo-transistor pour pouvoir faire des tests dans un ou deux jours</t>
+  </si>
+  <si>
+    <t>Pas disponible chez Distrelec, donc commande chez Farnell.</t>
+  </si>
+  <si>
+    <t>Remplissage du rapport de travail ainsi que le rapport de developpement</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Remplissage du rapport de travail </t>
+  </si>
+  <si>
+    <t>Ecriture du rapport de travail</t>
+  </si>
+  <si>
+    <t>Code</t>
+  </si>
+  <si>
+    <t>Création d'un code pour tester la  de bruit.</t>
+  </si>
+  <si>
+    <t>Discussion avec Mr.Berset pour répondre à des questions et valider le schéma</t>
   </si>
 </sst>
 </file>
@@ -562,7 +590,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -659,6 +687,25 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2101,6 +2148,10 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Thème Office">
   <a:themeElements>
@@ -2363,12 +2414,86 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1A5B48C7-26D3-4355-9443-CFC00CAB1D6D}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="B4:B12"/>
+  <sheetViews>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="D20" sqref="D20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="4" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="5" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="6" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="7" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B7" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="8" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="9" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="10" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B10" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="11" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B11" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="12" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B12" t="s">
+        <v>60</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G33"/>
+  <dimension ref="A1:G35"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A13" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I19" sqref="I19"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <pane ySplit="4" topLeftCell="A19" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H31" sqref="H31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="13.5" x14ac:dyDescent="0.25"/>
@@ -2423,7 +2548,7 @@
         <v>17</v>
       </c>
       <c r="E3" s="30" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F3" s="8" t="s">
         <v>2</v>
@@ -2511,17 +2636,17 @@
       </c>
       <c r="G8" s="14"/>
     </row>
-    <row r="9" spans="1:7" s="10" customFormat="1" ht="33.75" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:7" s="10" customFormat="1" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A9" s="32"/>
       <c r="B9" s="4"/>
       <c r="C9" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="D9" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="D9" s="4" t="s">
+      <c r="E9" s="4" t="s">
         <v>77</v>
-      </c>
-      <c r="E9" s="4" t="s">
-        <v>78</v>
       </c>
       <c r="F9" s="6">
         <v>1</v>
@@ -2535,7 +2660,7 @@
         <v>68</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>75</v>
+        <v>99</v>
       </c>
       <c r="E10" s="4"/>
       <c r="F10" s="6">
@@ -2559,7 +2684,7 @@
       </c>
       <c r="G11" s="14"/>
     </row>
-    <row r="12" spans="1:7" s="10" customFormat="1" ht="157.5" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:7" s="10" customFormat="1" ht="135" x14ac:dyDescent="0.2">
       <c r="A12" s="32" t="s">
         <v>5</v>
       </c>
@@ -2570,27 +2695,27 @@
         <v>70</v>
       </c>
       <c r="D12" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="E12" s="4" t="s">
         <v>80</v>
-      </c>
-      <c r="E12" s="4" t="s">
-        <v>81</v>
       </c>
       <c r="F12" s="6">
         <v>3</v>
       </c>
       <c r="G12" s="14"/>
     </row>
-    <row r="13" spans="1:7" s="10" customFormat="1" ht="146.25" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:7" s="10" customFormat="1" ht="123.75" x14ac:dyDescent="0.2">
       <c r="A13" s="32"/>
       <c r="B13" s="4"/>
       <c r="C13" s="4" t="s">
         <v>70</v>
       </c>
       <c r="D13" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="E13" s="4" t="s">
         <v>82</v>
-      </c>
-      <c r="E13" s="4" t="s">
-        <v>83</v>
       </c>
       <c r="F13" s="6">
         <v>3</v>
@@ -2604,7 +2729,7 @@
         <v>68</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>75</v>
+        <v>99</v>
       </c>
       <c r="E14" s="4"/>
       <c r="F14" s="6">
@@ -2616,10 +2741,10 @@
       <c r="A15" s="32"/>
       <c r="B15" s="4"/>
       <c r="C15" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="D15" s="4" t="s">
         <v>84</v>
-      </c>
-      <c r="D15" s="4" t="s">
-        <v>85</v>
       </c>
       <c r="E15" s="4"/>
       <c r="F15" s="6">
@@ -2651,13 +2776,13 @@
         <v>61</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E17" s="4" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="F17" s="6">
         <v>0.5</v>
@@ -2668,10 +2793,10 @@
       <c r="A18" s="32"/>
       <c r="B18" s="4"/>
       <c r="C18" s="4" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E18" s="4"/>
       <c r="F18" s="6">
@@ -2683,13 +2808,13 @@
       <c r="A19" s="32"/>
       <c r="B19" s="4"/>
       <c r="C19" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="D19" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="D19" s="4" t="s">
-        <v>89</v>
-      </c>
       <c r="E19" s="4" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="F19" s="6">
         <v>3</v>
@@ -2703,10 +2828,10 @@
         <v>68</v>
       </c>
       <c r="D20" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="E20" s="4" t="s">
         <v>90</v>
-      </c>
-      <c r="E20" s="4" t="s">
-        <v>92</v>
       </c>
       <c r="F20" s="6">
         <v>0.5</v>
@@ -2729,84 +2854,124 @@
       </c>
       <c r="G21" s="14"/>
     </row>
-    <row r="22" spans="1:7" s="10" customFormat="1" ht="22.5" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:7" s="10" customFormat="1" ht="33.75" x14ac:dyDescent="0.2">
       <c r="A22" s="32" t="s">
         <v>8</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="C22" s="4"/>
-      <c r="D22" s="4"/>
+      <c r="C22" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="D22" s="4" t="s">
+        <v>92</v>
+      </c>
       <c r="E22" s="4"/>
-      <c r="F22" s="6"/>
+      <c r="F22" s="6">
+        <v>1</v>
+      </c>
       <c r="G22" s="14"/>
     </row>
-    <row r="23" spans="1:7" s="10" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:7" s="10" customFormat="1" ht="33.75" x14ac:dyDescent="0.2">
       <c r="A23" s="32"/>
       <c r="B23" s="4"/>
-      <c r="C23" s="4"/>
-      <c r="D23" s="4"/>
-      <c r="E23" s="4"/>
-      <c r="F23" s="6"/>
+      <c r="C23" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="D23" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="E23" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="F23" s="6">
+        <v>2</v>
+      </c>
       <c r="G23" s="14"/>
     </row>
-    <row r="24" spans="1:7" s="10" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:7" s="10" customFormat="1" ht="33.75" x14ac:dyDescent="0.2">
       <c r="A24" s="32"/>
       <c r="B24" s="4"/>
-      <c r="C24" s="4"/>
-      <c r="D24" s="4"/>
-      <c r="E24" s="4"/>
-      <c r="F24" s="6"/>
+      <c r="C24" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="D24" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="E24" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="F24" s="6">
+        <v>0.5</v>
+      </c>
       <c r="G24" s="14"/>
     </row>
-    <row r="25" spans="1:7" s="10" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:7" s="10" customFormat="1" ht="33.75" x14ac:dyDescent="0.2">
       <c r="A25" s="32"/>
       <c r="B25" s="4"/>
-      <c r="C25" s="4"/>
-      <c r="D25" s="4"/>
+      <c r="C25" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="D25" s="4" t="s">
+        <v>97</v>
+      </c>
       <c r="E25" s="4"/>
-      <c r="F25" s="6"/>
+      <c r="F25" s="6">
+        <v>1</v>
+      </c>
       <c r="G25" s="14"/>
     </row>
-    <row r="26" spans="1:7" s="10" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="15" t="s">
+    <row r="26" spans="1:7" s="10" customFormat="1" ht="22.5" x14ac:dyDescent="0.2">
+      <c r="A26" s="32"/>
+      <c r="B26" s="4"/>
+      <c r="C26" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="D26" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="E26" s="4"/>
+      <c r="F26" s="6">
+        <v>1.5</v>
+      </c>
+      <c r="G26" s="14"/>
+    </row>
+    <row r="27" spans="1:7" s="10" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="32"/>
+      <c r="B27" s="4"/>
+      <c r="C27" s="41" t="s">
+        <v>87</v>
+      </c>
+      <c r="D27" s="40" t="s">
+        <v>102</v>
+      </c>
+      <c r="E27" s="39"/>
+      <c r="F27" s="10">
+        <v>1</v>
+      </c>
+      <c r="G27" s="14"/>
+    </row>
+    <row r="28" spans="1:7" s="10" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="15" t="s">
         <v>65</v>
       </c>
-      <c r="B26" s="16"/>
-      <c r="C26" s="16"/>
-      <c r="D26" s="16"/>
-      <c r="E26" s="17" t="s">
+      <c r="B28" s="16"/>
+      <c r="C28" s="16"/>
+      <c r="D28" s="16"/>
+      <c r="E28" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="F26" s="18">
-        <f>SUM(F22:F25)</f>
-        <v>0</v>
-      </c>
-      <c r="G26" s="14"/>
-    </row>
-    <row r="27" spans="1:7" s="10" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
-      <c r="A27" s="32" t="s">
+      <c r="F28" s="18">
+        <f>SUM(F22:F27)</f>
+        <v>7</v>
+      </c>
+      <c r="G28" s="14"/>
+    </row>
+    <row r="29" spans="1:7" s="10" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+      <c r="A29" s="32" t="s">
         <v>9</v>
       </c>
-      <c r="B27" s="4"/>
-      <c r="C27" s="4"/>
-      <c r="D27" s="4"/>
-      <c r="E27" s="4"/>
-      <c r="F27" s="6"/>
-      <c r="G27" s="14"/>
-    </row>
-    <row r="28" spans="1:7" s="10" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
-      <c r="A28" s="32"/>
-      <c r="B28" s="4"/>
-      <c r="C28" s="4"/>
-      <c r="D28" s="4"/>
-      <c r="E28" s="4"/>
-      <c r="F28" s="6"/>
-      <c r="G28" s="14"/>
-    </row>
-    <row r="29" spans="1:7" s="10" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
-      <c r="A29" s="32"/>
       <c r="B29" s="4"/>
       <c r="C29" s="4"/>
       <c r="D29" s="4"/>
@@ -2823,51 +2988,70 @@
       <c r="F30" s="6"/>
       <c r="G30" s="14"/>
     </row>
-    <row r="31" spans="1:7" s="10" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="15" t="s">
+    <row r="31" spans="1:7" s="10" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+      <c r="A31" s="32"/>
+      <c r="B31" s="4"/>
+      <c r="C31" s="4"/>
+      <c r="D31" s="4"/>
+      <c r="E31" s="4"/>
+      <c r="F31" s="6"/>
+      <c r="G31" s="14"/>
+    </row>
+    <row r="32" spans="1:7" s="10" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+      <c r="A32" s="32"/>
+      <c r="B32" s="4"/>
+      <c r="C32" s="4"/>
+      <c r="D32" s="4"/>
+      <c r="E32" s="4"/>
+      <c r="F32" s="6"/>
+      <c r="G32" s="14"/>
+    </row>
+    <row r="33" spans="1:7" s="10" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A33" s="37" t="s">
         <v>66</v>
       </c>
-      <c r="B31" s="19"/>
-      <c r="C31" s="19"/>
-      <c r="D31" s="19"/>
-      <c r="E31" s="20" t="s">
+      <c r="B33" s="38"/>
+      <c r="C33" s="19"/>
+      <c r="D33" s="19"/>
+      <c r="E33" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="F31" s="21">
-        <f>SUM(F27:F30)</f>
+      <c r="F33" s="21">
+        <f>SUM(F29:F32)</f>
         <v>0</v>
       </c>
-      <c r="G31" s="14"/>
-    </row>
-    <row r="32" spans="1:7" s="10" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="28" t="s">
+      <c r="G33" s="14"/>
+    </row>
+    <row r="34" spans="1:7" s="10" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A34" s="30" t="s">
         <v>10</v>
       </c>
-      <c r="B32" s="28"/>
-      <c r="C32" s="28"/>
-      <c r="D32" s="28"/>
-      <c r="E32" s="17"/>
-      <c r="F32" s="17" t="s">
+      <c r="B34" s="35"/>
+      <c r="C34" s="35"/>
+      <c r="D34" s="36"/>
+      <c r="E34" s="17"/>
+      <c r="F34" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="G32" s="22">
-        <f>F11+F16+F21+F26+F31</f>
-        <v>21</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" s="10" customFormat="1" ht="82.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="25"/>
-      <c r="B33" s="26"/>
-      <c r="C33" s="26"/>
-      <c r="D33" s="26"/>
-      <c r="E33" s="26"/>
-      <c r="F33" s="26"/>
-      <c r="G33" s="27"/>
+      <c r="G34" s="22">
+        <f>F11+F16+F21+F28+F33</f>
+        <v>28</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" s="10" customFormat="1" ht="82.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A35" s="25"/>
+      <c r="B35" s="26"/>
+      <c r="C35" s="26"/>
+      <c r="D35" s="26"/>
+      <c r="E35" s="26"/>
+      <c r="F35" s="26"/>
+      <c r="G35" s="27"/>
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="A35:G35"/>
+    <mergeCell ref="A34:D34"/>
     <mergeCell ref="A2:B2"/>
-    <mergeCell ref="A33:G33"/>
     <mergeCell ref="A3:A4"/>
     <mergeCell ref="B3:B4"/>
     <mergeCell ref="C3:C4"/>
@@ -2876,11 +3060,10 @@
     <mergeCell ref="A5:A10"/>
     <mergeCell ref="A12:A15"/>
     <mergeCell ref="A17:A20"/>
-    <mergeCell ref="A22:A25"/>
-    <mergeCell ref="A27:A30"/>
-    <mergeCell ref="A32:D32"/>
+    <mergeCell ref="A22:A27"/>
+    <mergeCell ref="A29:A32"/>
   </mergeCells>
-  <conditionalFormatting sqref="F5:F31">
+  <conditionalFormatting sqref="F28:F33 F5:F26">
     <cfRule type="containsText" dxfId="31" priority="1" operator="containsText" text="Terminé">
       <formula>NOT(ISERROR(SEARCH("Terminé",F5)))</formula>
     </cfRule>
@@ -2888,12 +3071,12 @@
       <formula>NOT(ISERROR(SEARCH("En cours",F5)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G32">
+  <conditionalFormatting sqref="G34">
     <cfRule type="containsText" dxfId="29" priority="11" operator="containsText" text="Terminé">
-      <formula>NOT(ISERROR(SEARCH("Terminé",G32)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Terminé",G34)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="28" priority="12" operator="containsText" text="En cours">
-      <formula>NOT(ISERROR(SEARCH("En cours",G32)))</formula>
+      <formula>NOT(ISERROR(SEARCH("En cours",G34)))</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2901,7 +3084,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:G41"/>
   <sheetViews>
@@ -3370,6 +3553,11 @@
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A5:A10"/>
+    <mergeCell ref="A12:A15"/>
+    <mergeCell ref="A17:A20"/>
+    <mergeCell ref="A22:A25"/>
     <mergeCell ref="A33:G41"/>
     <mergeCell ref="A27:A30"/>
     <mergeCell ref="A32:D32"/>
@@ -3378,11 +3566,6 @@
     <mergeCell ref="B3:B4"/>
     <mergeCell ref="A3:A4"/>
     <mergeCell ref="C3:C4"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="A5:A10"/>
-    <mergeCell ref="A12:A15"/>
-    <mergeCell ref="A17:A20"/>
-    <mergeCell ref="A22:A25"/>
   </mergeCells>
   <conditionalFormatting sqref="F5:F31">
     <cfRule type="containsText" dxfId="27" priority="1" operator="containsText" text="Terminé">
@@ -3405,7 +3588,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BF08362A-39DA-4F12-AE49-90700CE33988}">
   <dimension ref="A1:G40"/>
   <sheetViews>
@@ -3859,6 +4042,11 @@
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="A24:A27"/>
     <mergeCell ref="A35:G40"/>
     <mergeCell ref="A29:A32"/>
     <mergeCell ref="A34:D34"/>
@@ -3867,11 +4055,6 @@
     <mergeCell ref="A7:A12"/>
     <mergeCell ref="A14:A17"/>
     <mergeCell ref="A19:A22"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="C5:C6"/>
-    <mergeCell ref="A24:A27"/>
   </mergeCells>
   <conditionalFormatting sqref="F7:F33">
     <cfRule type="containsText" dxfId="23" priority="1" operator="containsText" text="Terminé">
@@ -3894,7 +4077,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B33F9F35-91F5-4287-AB11-66F24B7EE014}">
   <dimension ref="A1:G38"/>
   <sheetViews>
@@ -4330,12 +4513,6 @@
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="A33:G38"/>
-    <mergeCell ref="C3:C4"/>
-    <mergeCell ref="D3:D4"/>
-    <mergeCell ref="E3:E4"/>
-    <mergeCell ref="A27:A30"/>
-    <mergeCell ref="A32:D32"/>
     <mergeCell ref="A2:B2"/>
     <mergeCell ref="A5:A10"/>
     <mergeCell ref="A12:A15"/>
@@ -4343,6 +4520,12 @@
     <mergeCell ref="A22:A25"/>
     <mergeCell ref="A3:A4"/>
     <mergeCell ref="B3:B4"/>
+    <mergeCell ref="A33:G38"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="D3:D4"/>
+    <mergeCell ref="E3:E4"/>
+    <mergeCell ref="A27:A30"/>
+    <mergeCell ref="A32:D32"/>
   </mergeCells>
   <conditionalFormatting sqref="F5:F31">
     <cfRule type="containsText" dxfId="19" priority="1" operator="containsText" text="Terminé">
@@ -4365,7 +4548,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AF79E5B0-34FE-4205-89D1-6452FC37D50D}">
   <dimension ref="A1:G39"/>
   <sheetViews>
@@ -4810,12 +4993,6 @@
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="A33:G39"/>
-    <mergeCell ref="C3:C4"/>
-    <mergeCell ref="D3:D4"/>
-    <mergeCell ref="E3:E4"/>
-    <mergeCell ref="A27:A30"/>
-    <mergeCell ref="A32:D32"/>
     <mergeCell ref="A2:B2"/>
     <mergeCell ref="A5:A10"/>
     <mergeCell ref="A12:A15"/>
@@ -4823,6 +5000,12 @@
     <mergeCell ref="A22:A25"/>
     <mergeCell ref="A3:A4"/>
     <mergeCell ref="B3:B4"/>
+    <mergeCell ref="A33:G39"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="D3:D4"/>
+    <mergeCell ref="E3:E4"/>
+    <mergeCell ref="A27:A30"/>
+    <mergeCell ref="A32:D32"/>
   </mergeCells>
   <conditionalFormatting sqref="F5:F31">
     <cfRule type="containsText" dxfId="15" priority="1" operator="containsText" text="Terminé">
@@ -4845,7 +5028,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D37F8995-69C5-4415-B491-47DB456548C7}">
   <dimension ref="A1:G39"/>
   <sheetViews>
@@ -5325,7 +5508,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8130D56E-805D-4CA4-A4B5-6A8EEF788C7C}">
   <dimension ref="A1:G39"/>
   <sheetViews>
@@ -5770,6 +5953,12 @@
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="E3:E4"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="D3:D4"/>
     <mergeCell ref="A33:G39"/>
     <mergeCell ref="A5:A10"/>
     <mergeCell ref="A12:A15"/>
@@ -5777,12 +5966,6 @@
     <mergeCell ref="A22:A25"/>
     <mergeCell ref="A27:A30"/>
     <mergeCell ref="A32:D32"/>
-    <mergeCell ref="E3:E4"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="C3:C4"/>
-    <mergeCell ref="D3:D4"/>
   </mergeCells>
   <conditionalFormatting sqref="F5:F31">
     <cfRule type="containsText" dxfId="7" priority="1" operator="containsText" text="Terminé">
@@ -5805,7 +5988,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6ECB339D-2EF1-40B0-BB05-FAAA8AB05868}">
   <dimension ref="A1:G39"/>
   <sheetViews>
@@ -6246,6 +6429,12 @@
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="E3:E4"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="D3:D4"/>
     <mergeCell ref="A33:G39"/>
     <mergeCell ref="A5:A10"/>
     <mergeCell ref="A12:A15"/>
@@ -6253,12 +6442,6 @@
     <mergeCell ref="A22:A25"/>
     <mergeCell ref="A27:A30"/>
     <mergeCell ref="A32:D32"/>
-    <mergeCell ref="E3:E4"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="C3:C4"/>
-    <mergeCell ref="D3:D4"/>
   </mergeCells>
   <conditionalFormatting sqref="F5:F31">
     <cfRule type="containsText" dxfId="3" priority="1" operator="containsText" text="Terminé">
@@ -6278,66 +6461,4 @@
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="B4:B12"/>
-  <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="4" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B4" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="5" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B5" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="6" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B6" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="7" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B7" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="8" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B8" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="9" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B9" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="10" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B10" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="11" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B11" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="12" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B12" t="s">
-        <v>60</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
-  <drawing r:id="rId2"/>
-</worksheet>
 </file>